--- a/update_instances/ig/StructureDefinition-administration-report.xlsx
+++ b/update_instances/ig/StructureDefinition-administration-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:24:55+00:00</t>
+    <t>2024-03-27T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1158,7 +1158,7 @@
 </t>
   </si>
   <si>
-    <t>Note</t>
+    <t>The administration report label and other note(s)</t>
   </si>
   <si>
     <t>Extra information about the medication administration that is not conveyed by the other attributes.</t>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
